--- a/db/tables.xlsx
+++ b/db/tables.xlsx
@@ -6,8 +6,8 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="t_user(用户) - 好的，那你开完给我电话吧，18666" sheetId="1" r:id="rId4"/>
-    <sheet name="t_user_role(用户角色关系))" sheetId="2" r:id="rId5"/>
+    <sheet name="t_user(用户)" sheetId="1" r:id="rId4"/>
+    <sheet name="t_user_role(用户角色关系)" sheetId="2" r:id="rId5"/>
     <sheet name="t_role(角色)" sheetId="3" r:id="rId6"/>
     <sheet name="t_organization(组织)" sheetId="4" r:id="rId7"/>
     <sheet name="t_object_child(子件)" sheetId="5" r:id="rId8"/>
@@ -255,7 +255,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -267,13 +267,18 @@
       <name val="Helvetica"/>
     </font>
     <font>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
       <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -282,7 +287,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="9"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -292,8 +297,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="14"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -303,28 +314,147 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="11"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
         <color indexed="11"/>
@@ -333,76 +463,91 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -412,17 +557,77 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -452,46 +657,22 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -514,7 +695,9 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffa5a5a5"/>
+      <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
@@ -534,10 +717,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="404040"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="BFBFBF"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="499BC9"/>
@@ -731,14 +914,15 @@
   <a:objectDefaults>
     <a:spDef>
       <a:spPr>
-        <a:blipFill rotWithShape="1">
-          <a:blip r:embed="rId1"/>
-          <a:srcRect l="0" t="0" r="0" b="0"/>
-          <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
-        </a:blipFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst>
           <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
@@ -753,7 +937,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -768,20 +952,14 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
             <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="25400" dist="23998" dir="2700000">
-                <a:srgbClr val="000000">
-                  <a:alpha val="31034"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
             <a:uFillTx/>
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
@@ -1034,14 +1212,20 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="6350" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
-        <a:effectLst/>
+        <a:effectLst>
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:srgbClr val="000000">
+              <a:alpha val="50000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
         <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
@@ -1330,7 +1514,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1834,18 +2018,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="12" customWidth="1"/>
-    <col min="2" max="2" width="46.9688" style="12" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="12" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="12" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="12" customWidth="1"/>
-    <col min="6" max="256" width="16.3516" style="12" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="24" customWidth="1"/>
+    <col min="2" max="2" width="47" style="24" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="24" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="24" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="24" customWidth="1"/>
+    <col min="6" max="256" width="16.3516" style="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.35" customHeight="1">
@@ -1934,6 +2118,13 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
@@ -1949,18 +2140,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="13" customWidth="1"/>
-    <col min="2" max="2" width="72.6719" style="13" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="13" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="13" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="13" customWidth="1"/>
-    <col min="6" max="256" width="16.3516" style="13" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="25" customWidth="1"/>
+    <col min="2" max="2" width="72.6719" style="25" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="25" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="25" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="25" customWidth="1"/>
+    <col min="6" max="256" width="16.3516" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.35" customHeight="1">
@@ -2049,6 +2240,13 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
@@ -2064,18 +2262,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="14" customWidth="1"/>
-    <col min="2" max="2" width="32.6641" style="14" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="14" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="14" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="14" customWidth="1"/>
-    <col min="6" max="256" width="16.3516" style="14" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="26" customWidth="1"/>
+    <col min="2" max="2" width="32.6719" style="26" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="26" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="26" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="26" customWidth="1"/>
+    <col min="6" max="256" width="16.3516" style="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.35" customHeight="1">
@@ -2164,6 +2362,13 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
@@ -2179,17 +2384,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="15" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="15" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="15" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="15" customWidth="1"/>
-    <col min="5" max="256" width="16.3516" style="15" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="27" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="27" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="27" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="27" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="27" customWidth="1"/>
+    <col min="6" max="256" width="16.3516" style="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.35" customHeight="1">
@@ -2199,6 +2405,7 @@
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" ht="22.35" customHeight="1">
       <c r="A2" t="s" s="2">
@@ -2209,6 +2416,7 @@
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" ht="22.35" customHeight="1">
       <c r="A3" t="s" s="2">
@@ -2219,6 +2427,7 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" ht="22.35" customHeight="1">
       <c r="A4" t="s" s="2">
@@ -2229,6 +2438,7 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" ht="22.35" customHeight="1">
       <c r="A5" t="s" s="2">
@@ -2239,6 +2449,7 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" ht="22.35" customHeight="1">
       <c r="A6" t="s" s="2">
@@ -2249,6 +2460,7 @@
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" ht="20.35" customHeight="1">
       <c r="A7" t="s" s="2">
@@ -2257,6 +2469,7 @@
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" ht="20.35" customHeight="1">
       <c r="A8" t="s" s="2">
@@ -2265,6 +2478,7 @@
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" ht="20.35" customHeight="1">
       <c r="A9" t="s" s="2">
@@ -2273,6 +2487,14 @@
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
@@ -2288,17 +2510,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="16" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="16" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="16" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="16" customWidth="1"/>
-    <col min="5" max="256" width="16.3516" style="16" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="28" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="28" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="28" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="28" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="28" customWidth="1"/>
+    <col min="6" max="256" width="16.3516" style="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.35" customHeight="1">
@@ -2308,6 +2531,7 @@
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" ht="22.35" customHeight="1">
       <c r="A2" t="s" s="2">
@@ -2318,6 +2542,7 @@
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" ht="22.35" customHeight="1">
       <c r="A3" t="s" s="2">
@@ -2328,6 +2553,7 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" ht="22.35" customHeight="1">
       <c r="A4" t="s" s="2">
@@ -2338,6 +2564,7 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" ht="20.35" customHeight="1">
       <c r="A5" t="s" s="2">
@@ -2346,6 +2573,7 @@
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" ht="20.35" customHeight="1">
       <c r="A6" t="s" s="2">
@@ -2354,6 +2582,7 @@
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" ht="20.35" customHeight="1">
       <c r="A7" t="s" s="2">
@@ -2362,18 +2591,28 @@
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" ht="20.35" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" ht="20.35" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
@@ -2389,28 +2628,30 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="17" customWidth="1"/>
-    <col min="2" max="2" width="32.1562" style="17" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="17" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="17" customWidth="1"/>
-    <col min="5" max="256" width="16.3516" style="17" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="29" customWidth="1"/>
+    <col min="2" max="2" width="32.1719" style="29" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="29" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="29" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="29" customWidth="1"/>
+    <col min="6" max="256" width="16.3516" style="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.35" customHeight="1">
+    <row r="1" ht="19.45" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-    </row>
-    <row r="2" ht="22.35" customHeight="1">
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" ht="21.35" customHeight="1">
       <c r="A2" t="s" s="2">
         <v>67</v>
       </c>
@@ -2419,8 +2660,9 @@
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-    </row>
-    <row r="3" ht="22.35" customHeight="1">
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" ht="21.35" customHeight="1">
       <c r="A3" t="s" s="2">
         <v>46</v>
       </c>
@@ -2429,8 +2671,9 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-    </row>
-    <row r="4" ht="22.35" customHeight="1">
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" ht="21.35" customHeight="1">
       <c r="A4" t="s" s="2">
         <v>48</v>
       </c>
@@ -2439,8 +2682,9 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-    </row>
-    <row r="5" ht="22.35" customHeight="1">
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" ht="21.35" customHeight="1">
       <c r="A5" t="s" s="2">
         <v>50</v>
       </c>
@@ -2449,36 +2693,48 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-    </row>
-    <row r="6" ht="20.35" customHeight="1">
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" ht="19.45" customHeight="1">
       <c r="A6" t="s" s="2">
         <v>7</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-    </row>
-    <row r="7" ht="20.35" customHeight="1">
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" ht="19.45" customHeight="1">
       <c r="A7" t="s" s="2">
         <v>9</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-    </row>
-    <row r="8" ht="20.35" customHeight="1">
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" ht="19.45" customHeight="1">
       <c r="A8" t="s" s="2">
         <v>11</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-    </row>
-    <row r="9" ht="20.35" customHeight="1">
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" ht="19.45" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" ht="14.3" customHeight="1">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
@@ -2494,17 +2750,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="18" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="18" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="18" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="18" customWidth="1"/>
-    <col min="5" max="256" width="16.3516" style="18" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="30" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="30" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="30" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="30" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="30" customWidth="1"/>
+    <col min="6" max="256" width="16.3516" style="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.35" customHeight="1">
@@ -2512,54 +2769,70 @@
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" ht="20.35" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" ht="20.35" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" ht="20.35" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" ht="20.35" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" ht="20.35" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" ht="20.35" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" ht="20.35" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" ht="20.35" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
@@ -2575,17 +2848,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="19" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="19" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="19" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="19" customWidth="1"/>
-    <col min="5" max="256" width="16.3516" style="19" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="31" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="31" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="31" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="31" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="31" customWidth="1"/>
+    <col min="6" max="256" width="16.3516" style="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.35" customHeight="1">
@@ -2593,54 +2867,70 @@
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" ht="20.35" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" ht="20.35" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" ht="20.35" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" ht="20.35" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" ht="20.35" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" ht="20.35" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" ht="20.35" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" ht="20.35" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
@@ -2658,86 +2948,84 @@
   </sheetPr>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="20" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="20" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="20" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="20" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="20" customWidth="1"/>
-    <col min="6" max="256" width="16.3516" style="20" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="32" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="32" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="32" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="32" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="32" customWidth="1"/>
+    <col min="6" max="256" width="16.3516" style="32" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.55" customHeight="1">
-      <c r="A1" s="21"/>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="A1" s="33"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="2" ht="20.55" customHeight="1">
-      <c r="A2" s="22"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" ht="20.35" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" ht="20.35" customHeight="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="26"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" ht="20.35" customHeight="1">
-      <c r="A5" s="25"/>
-      <c r="B5" s="26"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" ht="20.35" customHeight="1">
-      <c r="A6" s="25"/>
-      <c r="B6" s="26"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7" ht="20.35" customHeight="1">
-      <c r="A7" s="25"/>
-      <c r="B7" s="26"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
     <row r="8" ht="20.35" customHeight="1">
-      <c r="A8" s="25"/>
-      <c r="B8" s="26"/>
+      <c r="A8" s="37"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
     <row r="9" ht="20.35" customHeight="1">
-      <c r="A9" s="25"/>
-      <c r="B9" s="26"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
     <row r="10" ht="20.35" customHeight="1">
-      <c r="A10" s="25"/>
-      <c r="B10" s="26"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -2758,86 +3046,84 @@
   </sheetPr>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="27" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="27" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="27" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="27" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="27" customWidth="1"/>
-    <col min="6" max="256" width="16.3516" style="27" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="39" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="39" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="39" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="39" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="39" customWidth="1"/>
+    <col min="6" max="256" width="16.3516" style="39" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.55" customHeight="1">
-      <c r="A1" s="21"/>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="A1" s="33"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="2" ht="20.55" customHeight="1">
-      <c r="A2" s="22"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" ht="20.35" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" ht="20.35" customHeight="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="26"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" ht="20.35" customHeight="1">
-      <c r="A5" s="25"/>
-      <c r="B5" s="26"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" ht="20.35" customHeight="1">
-      <c r="A6" s="25"/>
-      <c r="B6" s="26"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7" ht="20.35" customHeight="1">
-      <c r="A7" s="25"/>
-      <c r="B7" s="26"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
     <row r="8" ht="20.35" customHeight="1">
-      <c r="A8" s="25"/>
-      <c r="B8" s="26"/>
+      <c r="A8" s="37"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
     <row r="9" ht="20.35" customHeight="1">
-      <c r="A9" s="25"/>
-      <c r="B9" s="26"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
     <row r="10" ht="20.35" customHeight="1">
-      <c r="A10" s="25"/>
-      <c r="B10" s="26"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -2856,7 +3142,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2866,7 +3152,8 @@
     <col min="2" max="2" width="16.3516" style="4" customWidth="1"/>
     <col min="3" max="3" width="16.3516" style="4" customWidth="1"/>
     <col min="4" max="4" width="16.3516" style="4" customWidth="1"/>
-    <col min="5" max="256" width="16.3516" style="4" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="4" customWidth="1"/>
+    <col min="6" max="256" width="16.3516" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.35" customHeight="1">
@@ -2876,6 +3163,7 @@
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" ht="20.35" customHeight="1">
       <c r="A2" t="s" s="2">
@@ -2884,6 +3172,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" ht="20.35" customHeight="1">
       <c r="A3" t="s" s="2">
@@ -2892,6 +3181,7 @@
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" ht="20.35" customHeight="1">
       <c r="A4" t="s" s="2">
@@ -2900,6 +3190,7 @@
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" ht="20.35" customHeight="1">
       <c r="A5" t="s" s="2">
@@ -2908,6 +3199,7 @@
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" ht="20.35" customHeight="1">
       <c r="A6" t="s" s="2">
@@ -2916,24 +3208,35 @@
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" ht="20.35" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" ht="20.35" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" ht="20.35" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
@@ -2949,17 +3252,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="5" customWidth="1"/>
-    <col min="2" max="2" width="48.7578" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="5" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="5" customWidth="1"/>
-    <col min="5" max="256" width="16.3516" style="5" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="10" customWidth="1"/>
+    <col min="2" max="2" width="48.8516" style="10" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="10" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="10" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="10" customWidth="1"/>
+    <col min="6" max="256" width="16.3516" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.35" customHeight="1">
@@ -2969,6 +3273,7 @@
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" ht="22.35" customHeight="1">
       <c r="A2" t="s" s="2">
@@ -2979,6 +3284,7 @@
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" ht="20.35" customHeight="1">
       <c r="A3" t="s" s="2">
@@ -2987,6 +3293,7 @@
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" ht="20.35" customHeight="1">
       <c r="A4" t="s" s="2">
@@ -2995,6 +3302,7 @@
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" ht="20.35" customHeight="1">
       <c r="A5" t="s" s="2">
@@ -3003,30 +3311,42 @@
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" ht="20.35" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" ht="20.35" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" ht="20.35" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" ht="20.35" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
@@ -3042,17 +3362,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="6" customWidth="1"/>
-    <col min="2" max="2" width="56.0859" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="6" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="6" customWidth="1"/>
-    <col min="5" max="256" width="16.3516" style="6" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="11" customWidth="1"/>
+    <col min="2" max="2" width="56.1719" style="11" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="11" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="11" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="11" customWidth="1"/>
+    <col min="6" max="256" width="16.3516" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.35" customHeight="1">
@@ -3062,6 +3383,7 @@
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" ht="20.35" customHeight="1">
       <c r="A2" t="s" s="2">
@@ -3070,6 +3392,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" ht="22.35" customHeight="1">
       <c r="A3" t="s" s="2">
@@ -3080,6 +3403,7 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" ht="22.35" customHeight="1">
       <c r="A4" t="s" s="2">
@@ -3090,6 +3414,7 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" ht="22.35" customHeight="1">
       <c r="A5" t="s" s="2">
@@ -3100,6 +3425,7 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" ht="20.35" customHeight="1">
       <c r="A6" t="s" s="2">
@@ -3108,6 +3434,7 @@
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" ht="20.35" customHeight="1">
       <c r="A7" t="s" s="2">
@@ -3116,6 +3443,7 @@
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" ht="20.35" customHeight="1">
       <c r="A8" t="s" s="2">
@@ -3124,6 +3452,21 @@
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
@@ -3139,17 +3482,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="7" customWidth="1"/>
-    <col min="2" max="2" width="47.1094" style="7" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="7" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="7" customWidth="1"/>
-    <col min="5" max="256" width="16.3516" style="7" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="17" customWidth="1"/>
+    <col min="2" max="2" width="47.1719" style="17" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="17" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="17" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="17" customWidth="1"/>
+    <col min="6" max="256" width="16.3516" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.35" customHeight="1">
@@ -3159,6 +3503,7 @@
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" ht="22.35" customHeight="1">
       <c r="A2" t="s" s="2">
@@ -3169,6 +3514,7 @@
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" ht="20.35" customHeight="1">
       <c r="A3" t="s" s="2">
@@ -3177,6 +3523,7 @@
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" ht="22.35" customHeight="1">
       <c r="A4" t="s" s="2">
@@ -3187,6 +3534,7 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" ht="22.35" customHeight="1">
       <c r="A5" t="s" s="2">
@@ -3197,6 +3545,7 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" ht="22.35" customHeight="1">
       <c r="A6" t="s" s="2">
@@ -3207,6 +3556,7 @@
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" ht="22.35" customHeight="1">
       <c r="A7" t="s" s="2">
@@ -3217,6 +3567,7 @@
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" ht="22.35" customHeight="1">
       <c r="A8" t="s" s="2">
@@ -3227,6 +3578,7 @@
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" ht="20.35" customHeight="1">
       <c r="A9" t="s" s="2">
@@ -3235,6 +3587,7 @@
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" ht="20.35" customHeight="1">
       <c r="A10" t="s" s="2">
@@ -3243,6 +3596,7 @@
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" ht="20.35" customHeight="1">
       <c r="A11" t="s" s="2">
@@ -3251,24 +3605,28 @@
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" ht="20.35" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" ht="20.35" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" ht="20.35" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
+      <c r="E14" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
@@ -3290,12 +3648,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="8" customWidth="1"/>
-    <col min="2" max="2" width="51.25" style="8" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="8" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="8" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="8" customWidth="1"/>
-    <col min="6" max="256" width="16.3516" style="8" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="19" customWidth="1"/>
+    <col min="2" max="2" width="51.3516" style="19" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="19" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="19" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="19" customWidth="1"/>
+    <col min="6" max="256" width="16.3516" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.35" customHeight="1">
@@ -3434,17 +3792,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="9" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="9" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="9" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="9" customWidth="1"/>
-    <col min="5" max="256" width="16.3516" style="9" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="20" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="20" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="20" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="20" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="20" customWidth="1"/>
+    <col min="6" max="256" width="16.3516" style="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.35" customHeight="1">
@@ -3454,6 +3813,7 @@
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" ht="22.35" customHeight="1">
       <c r="A2" t="s" s="2">
@@ -3464,6 +3824,7 @@
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" ht="22.35" customHeight="1">
       <c r="A3" t="s" s="2">
@@ -3474,6 +3835,7 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" ht="22.35" customHeight="1">
       <c r="A4" t="s" s="2">
@@ -3484,6 +3846,7 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" ht="20.35" customHeight="1">
       <c r="A5" t="s" s="2">
@@ -3492,6 +3855,7 @@
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" ht="20.35" customHeight="1">
       <c r="A6" t="s" s="2">
@@ -3500,6 +3864,7 @@
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" ht="20.35" customHeight="1">
       <c r="A7" t="s" s="2">
@@ -3508,18 +3873,28 @@
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" ht="20.35" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" ht="20.35" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
@@ -3535,17 +3910,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="10" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="10" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="10" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="10" customWidth="1"/>
-    <col min="5" max="256" width="16.3516" style="10" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="21" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="21" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="21" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="21" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="21" customWidth="1"/>
+    <col min="6" max="256" width="16.3516" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.35" customHeight="1">
@@ -3555,6 +3931,7 @@
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" ht="22.35" customHeight="1">
       <c r="A2" t="s" s="2">
@@ -3565,6 +3942,7 @@
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" ht="20.35" customHeight="1">
       <c r="A3" t="s" s="2">
@@ -3573,6 +3951,7 @@
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" ht="20.35" customHeight="1">
       <c r="A4" t="s" s="2">
@@ -3581,6 +3960,7 @@
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" ht="20.35" customHeight="1">
       <c r="A5" t="s" s="2">
@@ -3589,30 +3969,42 @@
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" ht="20.35" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" ht="20.35" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" ht="20.35" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" ht="20.35" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
@@ -3628,18 +4020,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="11" customWidth="1"/>
-    <col min="2" max="2" width="50.4219" style="11" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="11" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="11" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="11" customWidth="1"/>
-    <col min="6" max="256" width="16.3516" style="11" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="22" customWidth="1"/>
+    <col min="2" max="2" width="50.5" style="22" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="22" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="22" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="22" customWidth="1"/>
+    <col min="6" max="256" width="16.3516" style="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.35" customHeight="1">
@@ -3724,6 +4116,13 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
